--- a/data/study search/database search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
+++ b/data/study search/database search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_bachelor_thesis</t>
   </si>
   <si>
     <t xml:space="preserve">notes_PDF_download</t>
@@ -1370,271 +1382,307 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1038</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>2011</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2537</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>2016</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7387</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7000</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>2022</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1157</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>2013</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>8591</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1031</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>2006</v>
@@ -1643,36 +1691,40 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>4085</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
         <v>2007</v>
@@ -1681,114 +1733,126 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7523</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8584</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
         <v>2017</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4772</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>2005</v>
@@ -1797,258 +1861,282 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6499</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" t="n">
         <v>2022</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>8611</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E14" t="n">
         <v>1995</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10073</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E15" t="n">
         <v>2021</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>967</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
         <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7833</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E17" t="n">
         <v>2021</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10693</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E18" t="n">
         <v>2002</v>
@@ -2057,78 +2145,86 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>8416</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E19" t="n">
         <v>2021</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>4659</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E20" t="n">
         <v>2005</v>
@@ -2137,112 +2233,124 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6410</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E22" t="n">
         <v>2020</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7932</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E23" t="n">
         <v>2018</v>
@@ -2251,82 +2359,90 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7303</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E24" t="n">
         <v>2011</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1054</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E25" t="n">
         <v>1999</v>
@@ -2335,298 +2451,326 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>9902</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E26" t="n">
         <v>2011</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>9858</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E27" t="n">
         <v>2018</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>9421</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E28" t="n">
         <v>2020</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7620</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E29" t="n">
         <v>2010</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1615</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E30" t="n">
         <v>2018</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6638</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>9380</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E32" t="n">
         <v>2001</v>
@@ -2635,38 +2779,42 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6384</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E33" t="n">
         <v>2015</v>
@@ -2675,166 +2823,182 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E34" t="n">
         <v>2013</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1822</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E35" t="n">
         <v>2017</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10066</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E36" t="n">
         <v>2011</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>8705</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E37" t="n">
         <v>2019</v>
@@ -2843,199 +3007,219 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1726</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E38" t="n">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2868</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E39" t="n">
         <v>2018</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1250</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E40" t="n">
         <v>2022</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10262</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E41" t="n">
         <v>2011</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
